--- a/Asset.API/UploadedAttachments/HospitalApplications/Book1.xlsx
+++ b/Asset.API/UploadedAttachments/HospitalApplications/Book1.xlsx
@@ -1,42 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekram\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6259D054-9789-4AF9-94C6-16DD3BAF58C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9BF6E50B-7A5C-4F54-96D4-74414F53E77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$10</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>column 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+  <si>
+    <t>first ticket desc</t>
+  </si>
+  <si>
+    <t>3fedc334-8e37-4360-b5fa-ba87262eaa66</t>
+  </si>
+  <si>
+    <t>second request desc</t>
+  </si>
+  <si>
+    <t>power supply desc</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>new ticket desd</t>
+  </si>
+  <si>
+    <t>Go to work order</t>
+  </si>
+  <si>
+    <t>test status desc</t>
+  </si>
+  <si>
+    <t>REQUEST 5</t>
+  </si>
+  <si>
+    <t>2d3d756b-6ee4-433b-bb70-795f694e117f</t>
+  </si>
+  <si>
+    <t>3a7698dc-5325-4db0-aaac-d7cf2578d7f5</t>
+  </si>
+  <si>
+    <t>done and close</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>status ID</t>
+  </si>
+  <si>
+    <t>REQUESTid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,37 +91,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFBDE2D"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,26 +112,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC65911"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -138,7 +154,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -150,7 +166,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -167,9 +183,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -197,14 +213,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -232,6 +265,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,80 +433,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC5DFEF-13C2-4FF1-ABB2-A9C6E63A06BC}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <v>44531.413329560186</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44531.437609687498</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44531.457310601851</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44531.620125601854</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44531.628781296298</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44531.629866354167</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44531.66873247685</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44531.66930587963</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
+        <v>44531.675415011574</v>
+      </c>
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44531.675574907407</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44531.732777129633</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="C13" s="2">
+        <v>44531.733220000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="C14" s="2">
+        <v>44539.660903854165</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>SUBTOTAL(102, A2:A10)</f>
-        <v>2</v>
+      <c r="C15" s="2">
+        <v>44539.671036446758</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A10">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>